--- a/inst/shiny/variable_defaults_and_help.xlsx
+++ b/inst/shiny/variable_defaults_and_help.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="333" documentId="8_{C2269CCF-9EE7-1446-93A5-54AE6600A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8563FF1-012C-9A48-9D98-15709DB5BAF4}"/>
@@ -1839,8 +1839,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/shiny/variable_defaults_and_help.xlsx
+++ b/inst/shiny/variable_defaults_and_help.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{C2269CCF-9EE7-1446-93A5-54AE6600A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8563FF1-012C-9A48-9D98-15709DB5BAF4}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="8_{C2269CCF-9EE7-1446-93A5-54AE6600A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CF5AF8E-29A5-E643-A625-46F7DB77579A}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="35380" windowHeight="21900" xr2:uid="{E0DFC8D9-2769-CD42-9190-B3351BDE6F8D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E0DFC8D9-2769-CD42-9190-B3351BDE6F8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shiny_Args" sheetId="3" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1513,14 +1513,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,7 +1834,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2910,7 @@
       <c r="A35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -3158,7 +3152,7 @@
       <c r="A43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -3190,7 +3184,7 @@
       <c r="A44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -3222,7 +3216,7 @@
       <c r="A45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -3300,7 +3294,7 @@
       <c r="G47" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I47" s="14" t="s">
@@ -3346,7 +3340,7 @@
       <c r="A49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -3410,7 +3404,7 @@
       <c r="A51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -3440,7 +3434,7 @@
       <c r="A52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3472,7 +3466,7 @@
       <c r="A53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3600,7 +3594,7 @@
       <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -3632,7 +3626,7 @@
       <c r="A58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -3664,7 +3658,7 @@
       <c r="A59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3756,7 +3750,7 @@
       <c r="A62" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3765,7 +3759,7 @@
       <c r="D62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>380</v>
       </c>
       <c r="F62" s="7" t="s">
@@ -3820,7 +3814,7 @@
       <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -4064,7 +4058,7 @@
       <c r="A72" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -4080,7 +4074,7 @@
       <c r="G72" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="8" t="s">
         <v>285</v>
       </c>
       <c r="I72" s="14" t="s">
@@ -4094,7 +4088,7 @@
       <c r="A73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -4156,7 +4150,7 @@
       <c r="A75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -4248,7 +4242,7 @@
       <c r="A78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C78" s="8" t="s">
